--- a/tests/resources/xlsx/sheet_with_empty_cells.xlsx
+++ b/tests/resources/xlsx/sheet_with_empty_cells.xlsx
@@ -139,9 +139,6 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
